--- a/leetcode记录.xlsx
+++ b/leetcode记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6efd650fab0c0f2/6.00/3.Algorithms/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_24D9E44CB1DE3D2BB190A07F5C6F6D6D7B3E317B" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AEC34C64-2B72-6946-A3B1-2E3E2F326FAF}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_24D9E44CB1DE3D2BB190A07F5C6F6D6D7B3E317B" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{83DC8434-D3AA-2942-9D0A-DC20EE97E1F7}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="10500" windowWidth="16800" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="string" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>题号</t>
   </si>
@@ -299,6 +299,39 @@
       </rPr>
       <t>ZigZag Conversion</t>
     </r>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>m.find() != m.end()</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>两张unordered_map&lt;-,-&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>char array count == 0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.categorize by sorted string (nklogk)
+2.categorize by count (nk)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>recursive method</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort(arr.begin(), arr.end(), [](string &amp;s1, string &amp;s2) { return s1 + s2 &gt; s2 + s1; });</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>goingDown != goingDown</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -377,7 +410,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -401,6 +434,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1564,8 +1609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" customHeight="1"/>
@@ -1573,9 +1618,10 @@
     <col min="1" max="1" width="9.1640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="27.83203125" style="6" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="42.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="33.83203125" style="1" customWidth="1"/>
-    <col min="6" max="256" width="9.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" style="4" customWidth="1"/>
+    <col min="7" max="256" width="9.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.25" customHeight="1">
@@ -1610,7 +1656,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" ht="42.75" customHeight="1">
       <c r="A3" s="7">
@@ -1622,7 +1668,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="28.75" customHeight="1">
       <c r="A4" s="7">
@@ -1634,7 +1680,7 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="56.75" customHeight="1">
       <c r="A5" s="7">
@@ -1646,7 +1692,7 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" ht="28.75" customHeight="1">
       <c r="A6" s="7">
@@ -1658,7 +1704,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="28.75" customHeight="1">
       <c r="A7" s="7">
@@ -1670,7 +1716,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="42.75" customHeight="1">
       <c r="A8" s="7">
@@ -1682,7 +1728,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="42.75" customHeight="1">
       <c r="A9" s="7">
@@ -1694,7 +1740,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="42.75" customHeight="1">
       <c r="A10" s="7">
@@ -1710,7 +1756,7 @@
       <c r="E10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="28" customHeight="1">
       <c r="A11" s="7">
@@ -1724,7 +1770,7 @@
         <v>9</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="28" customHeight="1">
       <c r="A12" s="7">
@@ -1736,7 +1782,9 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="F12" s="9" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="28" customHeight="1">
       <c r="A13" s="7">
@@ -1748,7 +1796,9 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="F13" s="9" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="28" customHeight="1">
       <c r="A14" s="7">
@@ -1758,9 +1808,15 @@
         <v>23</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="D14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0.56000000000000005</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="28" customHeight="1">
       <c r="A15" s="7">
@@ -1770,9 +1826,13 @@
         <v>24</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="D15" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="F15" s="10">
+        <v>0.81</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="28" customHeight="1">
       <c r="A16" s="7">
@@ -1782,9 +1842,11 @@
         <v>25</v>
       </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="D16" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" ht="28" customHeight="1">
       <c r="A17" s="7">
@@ -1796,7 +1858,9 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="F17" s="9" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="28" customHeight="1">
       <c r="A18" s="7">
@@ -1806,9 +1870,11 @@
         <v>27</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="D18" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" ht="28" customHeight="1">
       <c r="A19" s="7">
@@ -1817,12 +1883,13 @@
       <c r="B19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3"/>
+      <c r="E19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="28" customHeight="1">
       <c r="A20" s="7">
@@ -1831,12 +1898,13 @@
       <c r="B20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="14" customHeight="1">
       <c r="A21" s="7"/>
@@ -1844,7 +1912,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6" ht="14" customHeight="1">
       <c r="A22" s="7"/>
@@ -1852,7 +1920,7 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="F22" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/leetcode记录.xlsx
+++ b/leetcode记录.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6efd650fab0c0f2/6.00/3.Algorithms/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_24D9E44CB1DE3D2BB190A07F5C6F6D6D7B3E317B" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{83DC8434-D3AA-2942-9D0A-DC20EE97E1F7}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_24D9E44CB1DE3D2BB190A07F5C6F6D6D7B3E317B" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DB936263-A161-A34F-962A-AC06B45FE0DD}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10500" windowWidth="16800" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="string" sheetId="1" r:id="rId1"/>
+    <sheet name="string" sheetId="3" r:id="rId1"/>
+    <sheet name="Math" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,27 +29,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="125">
   <si>
     <t>题号</t>
   </si>
   <si>
     <t>题目链接</t>
-  </si>
-  <si>
-    <t>题目类型</t>
-  </si>
-  <si>
-    <t>解题思路</t>
-  </si>
-  <si>
-    <t>语法</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>string</t>
   </si>
   <si>
     <t>双指针 n</t>
@@ -64,274 +50,373 @@
     <t>很少考</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Implement strStr()</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Longest Common Prefix</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Length of Last Word</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>First Unique Character in a String</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Ransom Note</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Reverse String</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Reverse Words in a String</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Reverse Words in a String II</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Reverse Vowels of a String</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Isomorphic Strings</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Flip Game</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Flip Game II</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Word Pattern</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Valid Anagram</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Group Anagrams</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Group Shifted Strings</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Scramble String</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Largest Number</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ZigZag Conversion</t>
-    </r>
-  </si>
-  <si>
     <t>x</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>m.find() != m.end()</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>两张unordered_map&lt;-,-&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>char array count == 0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.categorize by sorted string (nklogk)
 2.categorize by count (nk)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>recursive method</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>sort(arr.begin(), arr.end(), [](string &amp;s1, string &amp;s2) { return s1 + s2 &gt; s2 + s1; });</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>goingDown != goingDown</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>基础</t>
+  </si>
+  <si>
+    <t>Reverse Integer</t>
+  </si>
+  <si>
+    <t>Compare Version Numbers</t>
+  </si>
+  <si>
+    <t>Plus One</t>
+  </si>
+  <si>
+    <t>String to Integer (atoi)</t>
+  </si>
+  <si>
+    <t>Add Digits</t>
+  </si>
+  <si>
+    <t>Add Binary</t>
+  </si>
+  <si>
+    <t>Multiply Strings</t>
+  </si>
+  <si>
+    <t>Divide Two Integers</t>
+  </si>
+  <si>
+    <t>Sqrt(x)</t>
+  </si>
+  <si>
+    <t>Pow(x, n)</t>
+  </si>
+  <si>
+    <t>Valid Perfect Square</t>
+  </si>
+  <si>
+    <t>Water and Jug Problem</t>
+  </si>
+  <si>
+    <t>Count Primes</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Two Sum</t>
+  </si>
+  <si>
+    <t>Two Sum II - Input array is sorted</t>
+  </si>
+  <si>
+    <t>3Sum</t>
+  </si>
+  <si>
+    <t>3Sum Closest</t>
+  </si>
+  <si>
+    <t>3Sum Smaller</t>
+  </si>
+  <si>
+    <t>4Sum</t>
+  </si>
+  <si>
+    <t>Power of Two</t>
+  </si>
+  <si>
+    <t>Power of Three</t>
+  </si>
+  <si>
+    <t>Power of Four</t>
+  </si>
+  <si>
+    <t>Super Pow</t>
+  </si>
+  <si>
+    <t>Number of Digit One</t>
+  </si>
+  <si>
+    <t>Bulb Switcher</t>
+  </si>
+  <si>
+    <t>Nim Game</t>
+  </si>
+  <si>
+    <t>Happy Number</t>
+  </si>
+  <si>
+    <t>Nth Digit</t>
+  </si>
+  <si>
+    <t>Ugly Number</t>
+  </si>
+  <si>
+    <t>Ugly Number II</t>
+  </si>
+  <si>
+    <t>Additive Number</t>
+  </si>
+  <si>
+    <t>Factorial Trailing Zeroes</t>
+  </si>
+  <si>
+    <t>Integer Break</t>
+  </si>
+  <si>
+    <t>Rotate Function</t>
+  </si>
+  <si>
+    <t>Elimination Game</t>
+  </si>
+  <si>
+    <t>Lexicographical Numbers</t>
+  </si>
+  <si>
+    <t>Count Numbers with Unique Digits</t>
+  </si>
+  <si>
+    <t>Sort Transformed Array</t>
+  </si>
+  <si>
+    <t>Integer Replacement</t>
+  </si>
+  <si>
+    <t>Largest Divisible Subset</t>
+  </si>
+  <si>
+    <t>解题思路</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>语法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Implement strStr()</t>
+  </si>
+  <si>
+    <t>Longest Common Prefix</t>
+  </si>
+  <si>
+    <t>Length of Last Word</t>
+  </si>
+  <si>
+    <t>First Unique Character in a String</t>
+  </si>
+  <si>
+    <t>Ransom Note</t>
+  </si>
+  <si>
+    <t>Reverse String</t>
+  </si>
+  <si>
+    <t>Reverse Words in a String</t>
+  </si>
+  <si>
+    <t>Reverse Words in a String II</t>
+  </si>
+  <si>
+    <t>Reverse Vowels of a String</t>
+  </si>
+  <si>
+    <t>Isomorphic Strings</t>
+  </si>
+  <si>
+    <t>Flip Game</t>
+  </si>
+  <si>
+    <t>Flip Game II</t>
+  </si>
+  <si>
+    <t>Word Pattern</t>
+  </si>
+  <si>
+    <t>Valid Anagram</t>
+  </si>
+  <si>
+    <t>Group Anagrams</t>
+  </si>
+  <si>
+    <t>Group Shifted Strings</t>
+  </si>
+  <si>
+    <t>Scramble String</t>
+  </si>
+  <si>
+    <t>Largest Number</t>
+  </si>
+  <si>
+    <t>ZigZag Conversion</t>
+  </si>
+  <si>
+    <t>One Edit Distance</t>
+  </si>
+  <si>
+    <t>Count and Say</t>
+  </si>
+  <si>
+    <t>Rearrange String k Distance Apart</t>
+  </si>
+  <si>
+    <t>Remove Duplicate Letters</t>
+  </si>
+  <si>
+    <t>Encode and Decode Strings</t>
+  </si>
+  <si>
+    <t>Excel Sheet Column Title</t>
+  </si>
+  <si>
+    <t>Excel Sheet Column Number</t>
+  </si>
+  <si>
+    <t>Roman to Integer</t>
+  </si>
+  <si>
+    <t>Integer to Roman</t>
+  </si>
+  <si>
+    <t>Integer to English Words</t>
+  </si>
+  <si>
+    <t>Strobogrammatic Number</t>
+  </si>
+  <si>
+    <t>Strobogrammatic Number II</t>
+  </si>
+  <si>
+    <t>Strobogrammatic Number III</t>
+  </si>
+  <si>
+    <t>提高</t>
+  </si>
+  <si>
+    <t>Read N Characters Given Read4</t>
+  </si>
+  <si>
+    <t>Read N Characters Given Read4 II - Call multiple times</t>
+  </si>
+  <si>
+    <t>Text Justification</t>
+  </si>
+  <si>
+    <t>Valid Number</t>
+  </si>
+  <si>
+    <t>Substring</t>
+  </si>
+  <si>
+    <t>Minimum Window Substring</t>
+  </si>
+  <si>
+    <t>Substring with Concatenation of All Words</t>
+  </si>
+  <si>
+    <t>Longest Substring Without Repeating Characters</t>
+  </si>
+  <si>
+    <t>Longest Substring with At Most K Distinct Characters</t>
+  </si>
+  <si>
+    <t>Longest Substring with At Least K Repeating Characters</t>
+  </si>
+  <si>
+    <t>Longest Substring with At Most Two Distinct Characters</t>
+  </si>
+  <si>
+    <t>Palindrome</t>
+  </si>
+  <si>
+    <t>Valid Palindrome</t>
+  </si>
+  <si>
+    <t>Palindrome Permutation</t>
+  </si>
+  <si>
+    <t>Longest Palindromic Substring</t>
+  </si>
+  <si>
+    <t>Palindrome Number</t>
+  </si>
+  <si>
+    <t>Shortest Palindrome</t>
+  </si>
+  <si>
+    <t>Palindrome Pairs</t>
+  </si>
+  <si>
+    <t>Palindrome Partitioning</t>
+  </si>
+  <si>
+    <t>Palindrome Partitioning II</t>
+  </si>
+  <si>
+    <t>Palindrome Permutation II</t>
+  </si>
+  <si>
+    <t>Parentheses</t>
+  </si>
+  <si>
+    <t>Valid Parentheses</t>
+  </si>
+  <si>
+    <t>Generate Parentheses</t>
+  </si>
+  <si>
+    <t>Longest Valid Parentheses</t>
+  </si>
+  <si>
+    <t>Different Ways to Add Parentheses</t>
+  </si>
+  <si>
+    <t>Remove Invalid Parentheses</t>
+  </si>
+  <si>
+    <t>Subsequence</t>
+  </si>
+  <si>
+    <t>Is Subsequence</t>
+  </si>
+  <si>
+    <t>Distinct Subsequences</t>
+  </si>
+  <si>
+    <t>Repeated DNA Sequences</t>
+  </si>
+  <si>
+    <t>ß</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cspiration.com/leetcodeClassification</t>
   </si>
 </sst>
 </file>
@@ -345,23 +430,16 @@
       <name val="宋体"/>
     </font>
     <font>
+      <u/>
       <sz val="12"/>
-      <color indexed="8"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color indexed="13"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -371,6 +449,12 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF212529"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -405,51 +489,61 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -1606,349 +1700,1280 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IV22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C31955-1CE0-E845-8E07-880950040501}">
+  <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="42.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" style="4" customWidth="1"/>
-    <col min="7" max="256" width="9.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="59.83203125" customWidth="1"/>
+    <col min="3" max="4" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.25" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" ht="17">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17">
+      <c r="A2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="H2" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17">
+      <c r="A3" s="7">
+        <v>28</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" ht="17">
+      <c r="A4" s="7">
+        <v>14</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" ht="17">
+      <c r="A5" s="7">
+        <v>58</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" ht="17">
+      <c r="A6" s="7">
+        <v>387</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" ht="17">
+      <c r="A7" s="7">
+        <v>383</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" ht="17">
+      <c r="A8" s="7">
+        <v>344</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" ht="17">
+      <c r="A9" s="7">
+        <v>151</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" ht="17">
+      <c r="A10" s="7">
+        <v>186</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" ht="17">
+      <c r="A11" s="7">
+        <v>345</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="12" spans="1:8" ht="17">
+      <c r="A12" s="7">
+        <v>205</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="17">
+      <c r="A13" s="7">
+        <v>293</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17">
+      <c r="A14" s="7">
+        <v>294</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17">
+      <c r="A15" s="7">
+        <v>290</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17">
+      <c r="A16" s="7">
+        <v>242</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="5">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="48">
+      <c r="A17" s="7">
+        <v>49</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" ht="17">
+      <c r="A18" s="7">
+        <v>249</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17">
+      <c r="A19" s="7">
+        <v>87</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" ht="17">
+      <c r="A20" s="7">
+        <v>179</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.75" customHeight="1">
-      <c r="A2" s="7">
+    <row r="21" spans="1:5" ht="17">
+      <c r="A21" s="7">
+        <v>6</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17">
+      <c r="A22" s="7">
+        <v>161</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+    </row>
+    <row r="23" spans="1:5" ht="17">
+      <c r="A23" s="7">
+        <v>38</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" spans="1:5" ht="17">
+      <c r="A24" s="7">
+        <v>358</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" spans="1:5" ht="17">
+      <c r="A25" s="7">
+        <v>316</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="10"/>
+    </row>
+    <row r="26" spans="1:5" ht="17">
+      <c r="A26" s="7">
+        <v>271</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="10"/>
+    </row>
+    <row r="27" spans="1:5" ht="17">
+      <c r="A27" s="7">
+        <v>168</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="10"/>
+    </row>
+    <row r="28" spans="1:5" ht="17">
+      <c r="A28" s="7">
+        <v>171</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="10"/>
+    </row>
+    <row r="29" spans="1:5" ht="17">
+      <c r="A29" s="7">
+        <v>13</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="10"/>
+    </row>
+    <row r="30" spans="1:5" ht="17">
+      <c r="A30" s="7">
+        <v>12</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="10"/>
+    </row>
+    <row r="31" spans="1:5" ht="17">
+      <c r="A31" s="7">
+        <v>273</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="10"/>
+    </row>
+    <row r="32" spans="1:5" ht="17">
+      <c r="A32" s="7">
+        <v>246</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="10"/>
+    </row>
+    <row r="33" spans="1:4" ht="17">
+      <c r="A33" s="7">
+        <v>247</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="10"/>
+    </row>
+    <row r="34" spans="1:4" ht="17">
+      <c r="A34" s="7">
+        <v>248</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="10"/>
+    </row>
+    <row r="35" spans="1:4" ht="17">
+      <c r="A35" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="10"/>
+    </row>
+    <row r="36" spans="1:4" ht="17">
+      <c r="A36" s="7">
+        <v>157</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="10"/>
+    </row>
+    <row r="37" spans="1:4" ht="17">
+      <c r="A37" s="7">
+        <v>158</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="10"/>
+    </row>
+    <row r="38" spans="1:4" ht="17">
+      <c r="A38" s="7">
+        <v>68</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="10"/>
+    </row>
+    <row r="39" spans="1:4" ht="17">
+      <c r="A39" s="7">
+        <v>65</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="10"/>
+    </row>
+    <row r="40" spans="1:4" ht="17">
+      <c r="A40" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="10"/>
+    </row>
+    <row r="41" spans="1:4" ht="17">
+      <c r="A41" s="7">
+        <v>76</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="D41" s="10"/>
+    </row>
+    <row r="42" spans="1:4" ht="17">
+      <c r="A42" s="7">
+        <v>30</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="10"/>
+    </row>
+    <row r="43" spans="1:4" ht="17">
+      <c r="A43" s="7">
+        <v>3</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="10"/>
+    </row>
+    <row r="44" spans="1:4" ht="17">
+      <c r="A44" s="7">
+        <v>340</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="17">
+      <c r="A45" s="7">
+        <v>395</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="17">
+      <c r="A46" s="7">
+        <v>159</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="17">
+      <c r="A47" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" s="7"/>
+    </row>
+    <row r="48" spans="1:4" ht="17">
+      <c r="A48" s="7">
+        <v>125</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="17">
+      <c r="A49" s="7">
+        <v>266</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="17">
+      <c r="A50" s="7">
+        <v>5</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="17">
+      <c r="A51" s="7">
+        <v>9</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="17">
+      <c r="A52" s="7">
+        <v>214</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="17">
+      <c r="A53" s="7">
+        <v>336</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="17">
+      <c r="A54" s="7">
+        <v>131</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="17">
+      <c r="A55" s="7">
+        <v>132</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="17">
+      <c r="A56" s="7">
+        <v>267</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="17">
+      <c r="A57" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" s="7"/>
+    </row>
+    <row r="58" spans="1:2" ht="17">
+      <c r="A58" s="7">
+        <v>20</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="17">
+      <c r="A59" s="7">
+        <v>22</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="17">
+      <c r="A60" s="7">
+        <v>32</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="17">
+      <c r="A61" s="7">
+        <v>241</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="17">
+      <c r="A62" s="7">
+        <v>301</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="17">
+      <c r="A63" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B63" s="7"/>
+    </row>
+    <row r="64" spans="1:2" ht="17">
+      <c r="A64" s="7">
+        <v>392</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="17">
+      <c r="A65" s="7">
+        <v>115</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="17">
+      <c r="A66" s="7">
+        <v>187</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="https://leetcode.com/problems/implement-strstr/description/" xr:uid="{23509395-412A-AC4E-B041-8629466584CE}"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://leetcode.com/problems/longest-common-prefix/description/" xr:uid="{A816045B-A4C0-A14C-81F5-F34D78570D3D}"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://leetcode.com/problems/length-of-last-word/description/" xr:uid="{8574A3B6-C42C-DC4A-AD8F-0C4C18FE8C79}"/>
+    <hyperlink ref="B6" r:id="rId4" display="https://leetcode.com/problems/first-unique-character-in-a-string/description/" xr:uid="{EDDDF7DF-DDF2-5B4B-9EF3-E0AA87491AA7}"/>
+    <hyperlink ref="B7" r:id="rId5" display="https://leetcode.com/problems/ransom-note/description/" xr:uid="{0595FBF6-08B2-F94D-BC0B-36B2133413C8}"/>
+    <hyperlink ref="B8" r:id="rId6" display="https://leetcode.com/problems/reverse-string/description/" xr:uid="{FF073BB0-0FEC-7747-B9CF-DD8F5B89ADD4}"/>
+    <hyperlink ref="B9" r:id="rId7" display="https://leetcode.com/problems/reverse-words-in-a-string/description/" xr:uid="{D6177DCA-4C55-E942-ACF5-F4AC05155A23}"/>
+    <hyperlink ref="B10" r:id="rId8" display="https://leetcode.com/problems/reverse-words-in-a-string-ii/description/" xr:uid="{F7C27410-825C-CE46-9C2E-E31CD5EB1A81}"/>
+    <hyperlink ref="B11" r:id="rId9" display="https://leetcode.com/problems/reverse-vowels-of-a-string/description/" xr:uid="{5AD6AFD6-ABC7-9047-A196-10A2C666F9A7}"/>
+    <hyperlink ref="B12" r:id="rId10" display="https://leetcode.com/problems/isomorphic-strings/description/" xr:uid="{F220C7C4-1AA1-264E-84AB-3D6231BEB4EC}"/>
+    <hyperlink ref="B13" r:id="rId11" display="https://leetcode.com/problems/flip-game/description/" xr:uid="{3BE941CB-919F-8E45-B636-59DF0D2B7CFB}"/>
+    <hyperlink ref="B14" r:id="rId12" display="https://leetcode.com/problems/flip-game-ii/description/" xr:uid="{611B3FD2-9696-C040-95CD-F76FCA88C401}"/>
+    <hyperlink ref="B15" r:id="rId13" display="https://leetcode.com/problems/word-pattern/description/" xr:uid="{C22725DA-CB22-9D42-994C-198755705A34}"/>
+    <hyperlink ref="B16" r:id="rId14" display="https://leetcode.com/problems/valid-anagram/description/" xr:uid="{D52C7227-A44A-9C48-9665-B32A55C74385}"/>
+    <hyperlink ref="B17" r:id="rId15" display="https://leetcode.com/problems/group-anagrams/description/" xr:uid="{D7B4F7A4-61D2-1640-A7FE-7DDF038F3617}"/>
+    <hyperlink ref="B18" r:id="rId16" display="https://leetcode.com/problems/group-shifted-strings/description/" xr:uid="{C011B88E-8D3D-0F43-B0F4-D29E88380185}"/>
+    <hyperlink ref="B19" r:id="rId17" display="https://leetcode.com/problems/scramble-string/description/" xr:uid="{09EEA30E-EF33-EA40-88F2-7B845173417E}"/>
+    <hyperlink ref="B20" r:id="rId18" display="https://leetcode.com/problems/largest-number/description/" xr:uid="{EC978432-1C8F-134A-816C-76BE92C1C193}"/>
+    <hyperlink ref="B21" r:id="rId19" display="https://leetcode.com/problems/zigzag-conversion/description/" xr:uid="{3A96E111-93F3-B54F-BA4B-2E3FB5145D83}"/>
+    <hyperlink ref="B22" r:id="rId20" display="https://leetcode.com/problems/one-edit-distance/" xr:uid="{68DC1826-9687-E84E-91D3-CBA5D0CC6CB4}"/>
+    <hyperlink ref="B23" r:id="rId21" display="https://leetcode.com/problems/count-and-say/description/" xr:uid="{FBA3D4F3-3B45-A541-9367-BD740397CF53}"/>
+    <hyperlink ref="B24" r:id="rId22" display="https://leetcode.com/problems/rearrange-string-k-distance-apart/description/" xr:uid="{FC2852E2-D1A2-4C4C-87A6-18C493B4B530}"/>
+    <hyperlink ref="B25" r:id="rId23" display="https://leetcode.com/problems/remove-duplicate-letters/description/" xr:uid="{BB61B75C-C3F2-1443-9B6F-CD016D282045}"/>
+    <hyperlink ref="B26" r:id="rId24" display="https://leetcode.com/problems/encode-and-decode-strings/description/" xr:uid="{E91A9A28-0E7D-5847-A0D0-55320E476746}"/>
+    <hyperlink ref="B27" r:id="rId25" display="https://leetcode.com/problems/excel-sheet-column-title/description/" xr:uid="{AC195F1F-6C12-184C-A4B8-BF34E03FDAEA}"/>
+    <hyperlink ref="B28" r:id="rId26" display="https://leetcode.com/problems/excel-sheet-column-number/description/" xr:uid="{DEA8DE9C-DB87-4C48-8546-543D90BF9B6E}"/>
+    <hyperlink ref="B29" r:id="rId27" display="https://leetcode.com/problems/roman-to-integer/description/" xr:uid="{26F1B316-A0A6-E445-8F7E-30B869BC2762}"/>
+    <hyperlink ref="B30" r:id="rId28" display="https://leetcode.com/problems/integer-to-roman/description/" xr:uid="{4238F4C0-DD03-464E-85BA-E6B5BFBE2238}"/>
+    <hyperlink ref="B31" r:id="rId29" display="https://leetcode.com/problems/integer-to-english-words/description/" xr:uid="{C99762CF-1FA9-8C4B-B37D-8F15D1E609E1}"/>
+    <hyperlink ref="B32" r:id="rId30" display="https://leetcode.com/problems/strobogrammatic-number/description/" xr:uid="{05DC7195-545C-0443-94F0-7DBF724F2825}"/>
+    <hyperlink ref="B33" r:id="rId31" display="https://leetcode.com/problems/strobogrammatic-number-ii/description/" xr:uid="{666FD50B-11C1-4941-B6FD-BFDF3FB88AFD}"/>
+    <hyperlink ref="B34" r:id="rId32" display="https://leetcode.com/problems/strobogrammatic-number-iii/description/" xr:uid="{285B38FA-48C4-8842-9A2A-02C97AD90214}"/>
+    <hyperlink ref="B36" r:id="rId33" display="https://leetcode.com/problems/read-n-characters-given-read4/description/" xr:uid="{2CEE4B07-73F7-E64C-BDC4-8735D11AF23D}"/>
+    <hyperlink ref="B37" r:id="rId34" display="https://leetcode.com/problems/read-n-characters-given-read4-ii-call-multiple-times/description/" xr:uid="{CAB2BBB4-AFB2-4B46-B9C4-25FD7E5D0ADB}"/>
+    <hyperlink ref="B38" r:id="rId35" display="https://leetcode.com/problems/text-justification/description/" xr:uid="{0B8E80A9-3A00-F147-A8BC-DD239D5686CF}"/>
+    <hyperlink ref="B39" r:id="rId36" display="https://leetcode.com/problems/valid-number/description/" xr:uid="{7071F70D-5F31-214B-8C38-24B0B9D05DF2}"/>
+    <hyperlink ref="B41" r:id="rId37" display="https://leetcode.com/problems/minimum-window-substring/description/" xr:uid="{10A09C64-AC11-8A44-AB32-4CB02524A709}"/>
+    <hyperlink ref="B42" r:id="rId38" display="https://leetcode.com/problems/substring-with-concatenation-of-all-words/description/" xr:uid="{62C90149-D6CB-6A45-B66C-ECA1B1769CE1}"/>
+    <hyperlink ref="B43" r:id="rId39" display="https://leetcode.com/problems/longest-substring-without-repeating-characters/description/" xr:uid="{18923F8B-8FD2-9542-BF97-A5CF61630B4B}"/>
+    <hyperlink ref="B44" r:id="rId40" display="https://leetcode.com/problems/longest-substring-with-at-most-k-distinct-characters/description/" xr:uid="{870FAA6B-410F-8446-A628-BE234DDA2B9D}"/>
+    <hyperlink ref="B45" r:id="rId41" display="https://leetcode.com/problems/longest-substring-with-at-least-k-repeating-characters/description/" xr:uid="{E54A558A-EFBF-244A-885B-2CD1284F469F}"/>
+    <hyperlink ref="B46" r:id="rId42" display="https://leetcode.com/problems/longest-substring-with-at-most-two-distinct-characters/description/" xr:uid="{A2057A5C-535D-B54D-81C2-B337E0FC3F54}"/>
+    <hyperlink ref="B48" r:id="rId43" display="https://leetcode.com/problems/valid-palindrome/description/" xr:uid="{C5AF33D8-52B7-954C-B0BF-44CDE9A2F624}"/>
+    <hyperlink ref="B49" r:id="rId44" display="https://leetcode.com/problems/palindrome-permutation/description/" xr:uid="{A820AA73-B0E9-1641-A0B4-BF22FB6254C8}"/>
+    <hyperlink ref="B50" r:id="rId45" display="https://leetcode.com/problems/longest-palindromic-substring/description/" xr:uid="{E2E62136-8648-0A4C-877E-C786CA5C451E}"/>
+    <hyperlink ref="B51" r:id="rId46" display="https://leetcode.com/problems/palindrome-number/description/" xr:uid="{F7F2538E-9362-0845-A85C-D4E99AF95AF9}"/>
+    <hyperlink ref="B52" r:id="rId47" display="https://leetcode.com/problems/shortest-palindrome/description/" xr:uid="{DF260EDD-0D23-6744-A3A4-7C6EC21B5863}"/>
+    <hyperlink ref="B53" r:id="rId48" display="https://leetcode.com/problems/palindrome-pairs/description/" xr:uid="{613C3867-811B-6C4F-9222-FD31245D6427}"/>
+    <hyperlink ref="B54" r:id="rId49" display="https://leetcode.com/problems/palindrome-partitioning/description/" xr:uid="{05873168-8724-924B-872B-1D4EA7EE2A50}"/>
+    <hyperlink ref="B55" r:id="rId50" display="https://leetcode.com/problems/palindrome-partitioning-ii/description/" xr:uid="{412E4B20-FF52-334D-8BA2-C613EC131E82}"/>
+    <hyperlink ref="B56" r:id="rId51" display="https://leetcode.com/problems/palindrome-permutation-ii/description/" xr:uid="{5DD8AF72-B2F4-FF4F-BE9B-EBA75D925897}"/>
+    <hyperlink ref="B58" r:id="rId52" display="https://leetcode.com/problems/valid-parentheses/description/" xr:uid="{EEF7D7A2-0ED5-6F45-9744-7757961B5ADB}"/>
+    <hyperlink ref="B59" r:id="rId53" display="https://leetcode.com/problems/generate-parentheses/description/" xr:uid="{8AAD59D1-E166-F446-BB85-2D2C11ACE9E6}"/>
+    <hyperlink ref="B60" r:id="rId54" display="https://leetcode.com/problems/longest-valid-parentheses/description/" xr:uid="{83C929AD-8BF4-F94B-A4A5-0CDECE8F527C}"/>
+    <hyperlink ref="B61" r:id="rId55" display="https://leetcode.com/problems/different-ways-to-add-parentheses/description/" xr:uid="{AB85371A-00C2-E74C-90BF-26B9ADB87BFA}"/>
+    <hyperlink ref="B62" r:id="rId56" display="https://leetcode.com/problems/remove-invalid-parentheses/description/" xr:uid="{B3C0CD7C-0B1E-BF4E-B27A-0840F9A4964D}"/>
+    <hyperlink ref="B64" r:id="rId57" display="https://leetcode.com/problems/is-subsequence/description/" xr:uid="{5F5113E8-001F-8540-B28C-89E609F4D880}"/>
+    <hyperlink ref="B65" r:id="rId58" display="https://leetcode.com/problems/distinct-subsequences/description/" xr:uid="{A03B0E33-48F6-B54C-94F2-B964DBA4ECEB}"/>
+    <hyperlink ref="B66" r:id="rId59" display="https://leetcode.com/problems/repeated-dna-sequences/description/" xr:uid="{4FEC6A23-A3F2-3348-9F5F-3348E900B3A1}"/>
+    <hyperlink ref="H2" r:id="rId60" xr:uid="{9DAA0AF3-E050-734F-A614-544B3F09C115}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAD3DD7-948A-8A43-A82D-C4009A660293}">
+  <dimension ref="A1:E43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17">
+      <c r="A2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" ht="17">
+      <c r="A3" s="9">
+        <v>7</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" ht="17">
+      <c r="A4" s="9">
+        <v>165</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" ht="17">
+      <c r="A5" s="9">
+        <v>66</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" ht="17">
+      <c r="A6" s="9">
+        <v>8</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" ht="17">
+      <c r="A7" s="9">
+        <v>258</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" ht="17">
+      <c r="A8" s="9">
+        <v>67</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" ht="17">
+      <c r="A9" s="9">
+        <v>43</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" ht="17">
+      <c r="A10" s="9">
+        <v>29</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" ht="17">
+      <c r="A11" s="9">
+        <v>69</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:5" ht="17">
+      <c r="A12" s="9">
+        <v>50</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" ht="17">
+      <c r="A13" s="9">
+        <v>367</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5" ht="17">
+      <c r="A14" s="9">
+        <v>365</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" ht="17">
+      <c r="A15" s="9">
+        <v>204</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" ht="42.75" customHeight="1">
-      <c r="A3" s="7">
-        <v>14</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" ht="28.75" customHeight="1">
-      <c r="A4" s="7">
-        <v>58</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" ht="56.75" customHeight="1">
-      <c r="A5" s="7">
-        <v>387</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" ht="28.75" customHeight="1">
-      <c r="A6" s="7">
-        <v>383</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" ht="17">
+      <c r="A16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" ht="17">
+      <c r="A17" s="9">
+        <v>1</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" ht="17">
+      <c r="A18" s="9">
+        <v>167</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5" ht="17">
+      <c r="A19" s="9">
         <v>15</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" ht="28.75" customHeight="1">
-      <c r="A7" s="7">
-        <v>344</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="B19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5" ht="17">
+      <c r="A20" s="9">
         <v>16</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" ht="42.75" customHeight="1">
-      <c r="A8" s="7">
-        <v>151</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" ht="42.75" customHeight="1">
-      <c r="A9" s="7">
-        <v>186</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="B20" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17">
+      <c r="A21" s="9">
+        <v>259</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17">
+      <c r="A22" s="9">
         <v>18</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" ht="42.75" customHeight="1">
-      <c r="A10" s="7">
-        <v>345</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" ht="28" customHeight="1">
-      <c r="A11" s="7">
-        <v>205</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" ht="28" customHeight="1">
-      <c r="A12" s="7">
-        <v>293</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="28" customHeight="1">
-      <c r="A13" s="7">
-        <v>294</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="28" customHeight="1">
-      <c r="A14" s="7">
-        <v>290</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="10">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="28" customHeight="1">
-      <c r="A15" s="7">
-        <v>242</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="10">
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="28" customHeight="1">
-      <c r="A16" s="7">
+      <c r="B22" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="17">
+      <c r="A23" s="9">
+        <v>231</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="1:5" ht="17">
+      <c r="A24" s="9">
+        <v>326</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:5" ht="17">
+      <c r="A25" s="9">
+        <v>342</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="1:5" ht="17">
+      <c r="A26" s="9">
+        <v>372</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="1:5" ht="17">
+      <c r="A27" s="9">
+        <v>233</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="1:5" ht="17">
+      <c r="A28" s="9">
+        <v>319</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="1:5" ht="17">
+      <c r="A29" s="9">
+        <v>292</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="1:5" ht="17">
+      <c r="A30" s="9">
+        <v>202</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="1:5" ht="17">
+      <c r="A31" s="9">
+        <v>400</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="1:5" ht="17">
+      <c r="A32" s="9">
+        <v>263</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="1:5" ht="17">
+      <c r="A33" s="9">
+        <v>264</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="1:5" ht="17">
+      <c r="A34" s="9">
+        <v>306</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="9"/>
+    </row>
+    <row r="35" spans="1:5" ht="17">
+      <c r="A35" s="9">
+        <v>172</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="9"/>
+    </row>
+    <row r="36" spans="1:5" ht="17">
+      <c r="A36" s="9">
+        <v>343</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" ht="28" customHeight="1">
-      <c r="A17" s="7">
-        <v>249</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="28" customHeight="1">
-      <c r="A18" s="7">
-        <v>87</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" ht="28" customHeight="1">
-      <c r="A19" s="7">
-        <v>179</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="28" customHeight="1">
-      <c r="A20" s="7">
-        <v>6</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="14" customHeight="1">
-      <c r="A21" s="7"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:6" ht="14" customHeight="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="7"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="9"/>
+    </row>
+    <row r="37" spans="1:5" ht="17">
+      <c r="A37" s="9">
+        <v>396</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="9"/>
+    </row>
+    <row r="38" spans="1:5" ht="17">
+      <c r="A38" s="9">
+        <v>390</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="9"/>
+    </row>
+    <row r="39" spans="1:5" ht="17">
+      <c r="A39" s="9">
+        <v>386</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="9"/>
+    </row>
+    <row r="40" spans="1:5" ht="17">
+      <c r="A40" s="9">
+        <v>357</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="9"/>
+    </row>
+    <row r="41" spans="1:5" ht="17">
+      <c r="A41" s="9">
+        <v>360</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="9"/>
+    </row>
+    <row r="42" spans="1:5" ht="17">
+      <c r="A42" s="9">
+        <v>397</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="9"/>
+    </row>
+    <row r="43" spans="1:5" ht="17">
+      <c r="A43" s="9">
+        <v>368</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B3" r:id="rId1" display="https://leetcode.com/problems/reverse-integer/description/" xr:uid="{7A0F58DC-F630-9C49-B9F7-7951F4E0A7CD}"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://leetcode.com/problems/compare-version-numbers/description/" xr:uid="{B5BF5277-EE85-3841-86F3-39BC0A0B728C}"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://leetcode.com/problems/plus-one/description/" xr:uid="{7B93383C-2D34-4C41-922D-758567956C3C}"/>
+    <hyperlink ref="B6" r:id="rId4" display="https://leetcode.com/problems/string-to-integer-atoi/description/" xr:uid="{56DACE76-4314-DF43-A9EC-1D64D88CD644}"/>
+    <hyperlink ref="B7" r:id="rId5" display="https://leetcode.com/problems/add-digits/description/" xr:uid="{B43145F4-872A-B043-9C5E-BADFC4D59198}"/>
+    <hyperlink ref="B8" r:id="rId6" display="https://leetcode.com/problems/add-binary/description/" xr:uid="{EC3DB216-9DE2-4641-AC6C-DEEAFB6CB96B}"/>
+    <hyperlink ref="B9" r:id="rId7" display="https://leetcode.com/problems/multiply-strings/description/" xr:uid="{1043BAB2-59E1-A142-B5FB-3F4E39C1A21E}"/>
+    <hyperlink ref="B10" r:id="rId8" display="https://leetcode.com/problems/divide-two-integers/description/" xr:uid="{C35A7E5B-31DA-754C-B936-89933FC9D7FC}"/>
+    <hyperlink ref="B11" r:id="rId9" display="https://leetcode.com/problems/sqrtx/description/" xr:uid="{DA5C52FF-061C-D746-883F-2774C52A3E13}"/>
+    <hyperlink ref="B12" r:id="rId10" display="https://leetcode.com/problems/powx-n/description/" xr:uid="{AD534B13-4AC1-FC41-A0B9-8BCC55FD99D8}"/>
+    <hyperlink ref="B13" r:id="rId11" display="https://leetcode.com/problems/valid-perfect-square/description/" xr:uid="{F3555C3C-5FAA-5145-8858-7844E0236F4D}"/>
+    <hyperlink ref="B14" r:id="rId12" display="https://leetcode.com/problems/water-and-jug-problem/description/" xr:uid="{BB0CC4A3-E996-9248-BDA7-BD1C86D41054}"/>
+    <hyperlink ref="B15" r:id="rId13" display="https://leetcode.com/problems/count-primes/description/" xr:uid="{0642A42B-D4CC-B046-A03C-AF6670402439}"/>
+    <hyperlink ref="B17" r:id="rId14" display="https://leetcode.com/problems/two-sum/description/" xr:uid="{D708F276-72AE-354B-A5C3-6FF9704DCC69}"/>
+    <hyperlink ref="B18" r:id="rId15" display="https://leetcode.com/problems/two-sum-ii-input-array-is-sorted/description/" xr:uid="{8818DF38-F82F-3C4E-8048-2C8570832D1E}"/>
+    <hyperlink ref="B19" r:id="rId16" display="https://leetcode.com/problems/3sum/description/" xr:uid="{238D05CC-F3D9-DD42-83F1-0640BE6AF738}"/>
+    <hyperlink ref="B20" r:id="rId17" display="https://leetcode.com/problems/3sum-closest/description/" xr:uid="{07F35A94-4816-A04B-BA34-F1E1F87B6518}"/>
+    <hyperlink ref="B21" r:id="rId18" display="https://leetcode.com/problems/3sum-smaller/description/" xr:uid="{768ACE64-BD63-F941-800C-FC35575E88CD}"/>
+    <hyperlink ref="B22" r:id="rId19" display="https://leetcode.com/problems/4sum/description/" xr:uid="{076CF260-A60D-964C-9310-E821797E56FF}"/>
+    <hyperlink ref="B23" r:id="rId20" display="https://leetcode.com/problems/power-of-two/description/" xr:uid="{48881417-877D-0C41-9094-DB32EF5BD4AD}"/>
+    <hyperlink ref="B24" r:id="rId21" display="https://leetcode.com/problems/power-of-three/description/" xr:uid="{B63B292F-77B2-1544-A06F-703DBDAEC3DE}"/>
+    <hyperlink ref="B25" r:id="rId22" display="https://leetcode.com/problems/power-of-four/description/" xr:uid="{A2B99590-9F34-184F-A2F1-505866E15BF6}"/>
+    <hyperlink ref="B26" r:id="rId23" display="https://leetcode.com/problems/super-pow/description/" xr:uid="{2DC0589F-2701-D94C-AE78-F8DD076871F9}"/>
+    <hyperlink ref="B27" r:id="rId24" display="https://leetcode.com/problems/number-of-digit-one/description/" xr:uid="{0CE95908-A08E-BD4C-95B9-3DCFE76A29CA}"/>
+    <hyperlink ref="B28" r:id="rId25" display="https://leetcode.com/problems/bulb-switcher/description/" xr:uid="{2DA8528C-22B6-3340-9EC0-C7B3661369CB}"/>
+    <hyperlink ref="B29" r:id="rId26" display="https://leetcode.com/problems/nim-game/description/" xr:uid="{7B9071C4-78BD-E542-9AC1-9ECF25B812AF}"/>
+    <hyperlink ref="B30" r:id="rId27" display="https://leetcode.com/problems/happy-number/description/" xr:uid="{7E8E1DA8-F67B-5447-87B0-0CAED50C6C78}"/>
+    <hyperlink ref="B31" r:id="rId28" display="https://leetcode.com/problems/nth-digit/description/" xr:uid="{C9251446-D49C-EF4F-BB8F-062655296F29}"/>
+    <hyperlink ref="B32" r:id="rId29" display="https://leetcode.com/problems/ugly-number/description/" xr:uid="{E5E6BCA1-3D17-4541-8721-DCA00F3720F3}"/>
+    <hyperlink ref="B33" r:id="rId30" display="https://leetcode.com/problems/ugly-number-ii/description/" xr:uid="{4FEBF5FC-EF28-B847-BD04-E954D253B979}"/>
+    <hyperlink ref="B34" r:id="rId31" display="https://leetcode.com/problems/additive-number/description/" xr:uid="{CB0D5B02-3F49-7E47-879C-A6EB724DBB69}"/>
+    <hyperlink ref="B35" r:id="rId32" display="https://leetcode.com/problems/factorial-trailing-zeroes/description/" xr:uid="{E46E7FBA-390C-F841-94A5-93F78FF40BB2}"/>
+    <hyperlink ref="B36" r:id="rId33" display="https://leetcode.com/problems/integer-break/description/" xr:uid="{AB4F50B4-478B-4E45-AEA2-9C5284E8C7B3}"/>
+    <hyperlink ref="B37" r:id="rId34" display="https://leetcode.com/problems/rotate-function/description/" xr:uid="{119B81E6-DFC8-1B42-886E-C6E5D5FC1B89}"/>
+    <hyperlink ref="B38" r:id="rId35" display="https://leetcode.com/problems/elimination-game/description/" xr:uid="{6F9F2CDB-BC84-D642-ACB1-CE36A7EBB49E}"/>
+    <hyperlink ref="B39" r:id="rId36" display="https://leetcode.com/problems/lexicographical-numbers/description/" xr:uid="{70D1D0F8-682D-A34A-AF3F-B5D2805875BA}"/>
+    <hyperlink ref="B40" r:id="rId37" display="https://leetcode.com/problems/count-numbers-with-unique-digits/description/" xr:uid="{F533846F-F057-8A4D-837A-AEDEC1C0834E}"/>
+    <hyperlink ref="B41" r:id="rId38" display="https://leetcode.com/problems/sort-transformed-array/description/" xr:uid="{A1B38CF5-46A9-124A-BC75-60F198BFF26B}"/>
+    <hyperlink ref="B42" r:id="rId39" display="https://leetcode.com/problems/integer-replacement/description/" xr:uid="{5782D8CD-5B2A-F14E-AC8A-1AA445F41277}"/>
+    <hyperlink ref="B43" r:id="rId40" display="https://leetcode.com/problems/largest-divisible-subset/description/" xr:uid="{D67A5B0D-D2EB-C74E-A349-BCBCF9B7E8BF}"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180599999999998" footer="0.51180599999999998"/>
-  <pageSetup orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/leetcode记录.xlsx
+++ b/leetcode记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6efd650fab0c0f2/6.00/3.Algorithms/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_24D9E44CB1DE3D2BB190A07F5C6F6D6D7B3E317B" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DB936263-A161-A34F-962A-AC06B45FE0DD}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_24D9E44CB1DE3D2BB190A07F5C6F6D6D7B3E317B" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D63235D0-6E70-F345-9EA9-DE694D6AA5A2}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="string" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="129">
   <si>
     <t>题号</t>
   </si>
@@ -417,6 +417,22 @@
   </si>
   <si>
     <t>https://cspiration.com/leetcodeClassification</t>
+  </si>
+  <si>
+    <t>边界条件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (res &gt; INT_MAX / 10 || (res == INT_MAX / 10 &amp;&amp; r &gt; 7)) return 0;
+if (res &lt; INT_MIN / 10 || (res == INT_MIN / 10 &amp;&amp; r &lt; -8)) return 0;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>version1[i] - '0'</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>digits.insert(digits.begin(), 1);</t>
   </si>
 </sst>
 </file>
@@ -497,7 +513,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -539,6 +555,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1703,7 +1722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C31955-1CE0-E845-8E07-880950040501}">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -2439,14 +2458,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAD3DD7-948A-8A43-A82D-C4009A660293}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="33.5" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" customWidth="1"/>
+    <col min="4" max="4" width="48" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17">
@@ -2475,7 +2496,7 @@
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
     </row>
-    <row r="3" spans="1:5" ht="17">
+    <row r="3" spans="1:5" ht="64">
       <c r="A3" s="9">
         <v>7</v>
       </c>
@@ -2483,8 +2504,12 @@
         <v>16</v>
       </c>
       <c r="C3" s="12"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="9"/>
+      <c r="D3" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="17">
       <c r="A4" s="9">
@@ -2494,7 +2519,9 @@
         <v>17</v>
       </c>
       <c r="C4" s="12"/>
-      <c r="D4" s="10"/>
+      <c r="D4" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="17">
@@ -2505,7 +2532,9 @@
         <v>18</v>
       </c>
       <c r="C5" s="12"/>
-      <c r="D5" s="10"/>
+      <c r="D5" s="10" t="s">
+        <v>128</v>
+      </c>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="17">
